--- a/src/main/resources/data/dist.xlsx
+++ b/src/main/resources/data/dist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F900B-4F72-46C3-BA18-8DE1FD86704C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA293D74-9277-4663-880B-1FCEA32342B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>机位编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -73,11 +121,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,99 +407,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2">
+        <v>12</v>
+      </c>
+      <c r="P3" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2">
+        <v>12</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>12</v>
+      </c>
+      <c r="P4" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2">
+        <v>12</v>
+      </c>
+      <c r="O5" s="2">
+        <v>12</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10</v>
+      </c>
+      <c r="N6" s="2">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2">
+        <v>10</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8</v>
+      </c>
+      <c r="O7" s="2">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>8</v>
+      </c>
+      <c r="L8" s="2">
+        <v>8</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10</v>
+      </c>
+      <c r="N8" s="2">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
+      <c r="P8" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>10</v>
+      </c>
+      <c r="N9" s="2">
+        <v>10</v>
+      </c>
+      <c r="O9" s="2">
+        <v>10</v>
+      </c>
+      <c r="P9" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B10" s="2">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>8</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
+      <c r="O10" s="2">
+        <v>10</v>
+      </c>
+      <c r="P10" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2">
+        <v>10</v>
+      </c>
+      <c r="O11" s="2">
+        <v>10</v>
+      </c>
+      <c r="P11" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>8</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>8</v>
+      </c>
+      <c r="N12" s="2">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>8</v>
+      </c>
+      <c r="O13" s="2">
+        <v>8</v>
+      </c>
+      <c r="P13" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
+        <v>8</v>
+      </c>
+      <c r="M14" s="2">
+        <v>8</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>6</v>
+      </c>
+      <c r="P14" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2">
+        <v>8</v>
+      </c>
+      <c r="M15" s="2">
+        <v>8</v>
+      </c>
+      <c r="N15" s="2">
+        <v>6</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>12</v>
+      </c>
+      <c r="I16" s="2">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2">
+        <v>15</v>
+      </c>
+      <c r="M16" s="2">
+        <v>15</v>
+      </c>
+      <c r="N16" s="2">
+        <v>12</v>
+      </c>
+      <c r="O16" s="2">
+        <v>12</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2">
+        <v>15</v>
+      </c>
+      <c r="M17" s="2">
+        <v>15</v>
+      </c>
+      <c r="N17" s="2">
+        <v>12</v>
+      </c>
+      <c r="O17" s="2">
+        <v>12</v>
+      </c>
+      <c r="P17" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="2">
         <v>0</v>
       </c>
     </row>
@@ -462,5 +1323,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A6:A17" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/data/dist.xlsx
+++ b/src/main/resources/data/dist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA293D74-9277-4663-880B-1FCEA32342B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E499B-D714-409F-85A3-FB8044B8121B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="R1" sqref="R1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/data/dist.xlsx
+++ b/src/main/resources/data/dist.xlsx
@@ -3,17 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E499B-D714-409F-85A3-FB8044B8121B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91493ED3-B8E8-442C-9B96-E1196AFDCE2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -410,7 +415,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,49 +484,49 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K2" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L2" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N2" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P2" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -529,52 +534,52 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K3" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L3" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M3" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N3" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O3" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P3" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -582,52 +587,52 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M4" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N4" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O4" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P4" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -635,52 +640,52 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L5" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N5" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O5" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -688,52 +693,52 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -741,52 +746,52 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -794,52 +799,52 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P8" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -847,52 +852,52 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P9" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -900,52 +905,52 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P10" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -953,52 +958,52 @@
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M11" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P11" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1006,52 +1011,52 @@
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J12" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N12" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O12" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P12" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1059,52 +1064,52 @@
         <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K13" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L13" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O13" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P13" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1112,52 +1117,52 @@
         <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L14" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M14" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P14" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1165,52 +1170,52 @@
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L15" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M15" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N15" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1218,52 +1223,52 @@
         <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K16" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L16" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M16" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N16" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O16" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1271,49 +1276,49 @@
         <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J17" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K17" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L17" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M17" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N17" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O17" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>

--- a/src/main/resources/data/dist.xlsx
+++ b/src/main/resources/data/dist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91493ED3-B8E8-442C-9B96-E1196AFDCE2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99604402-7515-4FC6-87B7-22B9C9ECA209}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>机位编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,6 +78,14 @@
     <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -126,11 +134,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,7 +434,7 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,8 +486,14 @@
       <c r="Q1" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="2">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -484,843 +501,1057 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>117.83</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>283.83999999999997</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>396.74</v>
       </c>
       <c r="F2" s="2">
-        <v>5</v>
+        <v>436.87</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>486.04</v>
       </c>
       <c r="H2" s="2">
-        <v>5</v>
+        <v>585.86</v>
       </c>
       <c r="I2" s="2">
-        <v>5</v>
+        <v>754.84</v>
       </c>
       <c r="J2" s="2">
-        <v>7</v>
+        <v>832.93</v>
       </c>
       <c r="K2" s="2">
-        <v>7</v>
+        <v>887.45</v>
       </c>
       <c r="L2" s="2">
-        <v>7</v>
+        <v>894.86</v>
       </c>
       <c r="M2" s="2">
-        <v>7</v>
+        <v>903.17</v>
       </c>
       <c r="N2" s="2">
-        <v>7</v>
+        <v>820.11</v>
       </c>
       <c r="O2" s="2">
-        <v>7</v>
+        <v>655.72</v>
       </c>
       <c r="P2" s="2">
-        <v>3</v>
+        <v>158.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>85.68</v>
+      </c>
+      <c r="R2">
+        <v>161.82</v>
+      </c>
+      <c r="S2">
+        <v>85.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>228.84</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>342.3</v>
       </c>
       <c r="F3" s="2">
-        <v>5</v>
+        <v>382.22</v>
       </c>
       <c r="G3" s="2">
-        <v>5</v>
+        <v>431.22</v>
       </c>
       <c r="H3" s="2">
-        <v>5</v>
+        <v>530.86</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
+        <v>699.84</v>
       </c>
       <c r="J3" s="2">
-        <v>7</v>
+        <v>777.93</v>
       </c>
       <c r="K3" s="2">
-        <v>7</v>
+        <v>832.5</v>
       </c>
       <c r="L3" s="2">
-        <v>7</v>
+        <v>840.08</v>
       </c>
       <c r="M3" s="2">
-        <v>7</v>
+        <v>848.82</v>
       </c>
       <c r="N3" s="2">
-        <v>7</v>
+        <v>766.46</v>
       </c>
       <c r="O3" s="2">
-        <v>5</v>
+        <v>605.54999999999995</v>
       </c>
       <c r="P3" s="2">
-        <v>3</v>
+        <v>179.99</v>
       </c>
       <c r="Q3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>123.55</v>
+      </c>
+      <c r="R3">
+        <v>165.28</v>
+      </c>
+      <c r="S3">
+        <v>92.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>221.01</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>166.01</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>180.42</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>218.25</v>
       </c>
       <c r="G4" s="2">
-        <v>3</v>
+        <v>266.05</v>
       </c>
       <c r="H4" s="2">
-        <v>5</v>
+        <v>364.85</v>
       </c>
       <c r="I4" s="2">
-        <v>5</v>
+        <v>533.86</v>
       </c>
       <c r="J4" s="2">
-        <v>5</v>
+        <v>611.91999999999996</v>
       </c>
       <c r="K4" s="2">
-        <v>5</v>
+        <v>666.58</v>
       </c>
       <c r="L4" s="2">
-        <v>5</v>
+        <v>674.73</v>
       </c>
       <c r="M4" s="2">
-        <v>5</v>
+        <v>685.08</v>
       </c>
       <c r="N4" s="2">
-        <v>5</v>
+        <v>605.54999999999995</v>
       </c>
       <c r="O4" s="2">
-        <v>5</v>
+        <v>460.56</v>
       </c>
       <c r="P4" s="2">
-        <v>3</v>
+        <v>304.57</v>
       </c>
       <c r="Q4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>276.79000000000002</v>
+      </c>
+      <c r="R4">
+        <v>266.93</v>
+      </c>
+      <c r="S4">
+        <v>232.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>341.54</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>288.58999999999997</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>138.12</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>104.14</v>
       </c>
       <c r="G5" s="2">
-        <v>3</v>
+        <v>154.62</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
+        <v>258.73</v>
       </c>
       <c r="I5" s="2">
-        <v>5</v>
+        <v>423.9</v>
       </c>
       <c r="J5" s="2">
-        <v>5</v>
+        <v>501.9</v>
       </c>
       <c r="K5" s="2">
-        <v>5</v>
+        <v>555.98</v>
       </c>
       <c r="L5" s="2">
-        <v>5</v>
+        <v>561</v>
       </c>
       <c r="M5" s="2">
-        <v>5</v>
+        <v>564.51</v>
       </c>
       <c r="N5" s="2">
-        <v>5</v>
+        <v>479</v>
       </c>
       <c r="O5" s="2">
-        <v>5</v>
+        <v>323.44</v>
       </c>
       <c r="P5" s="2">
-        <v>5</v>
+        <v>383.73</v>
       </c>
       <c r="Q5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>379.38</v>
+      </c>
+      <c r="R5">
+        <v>338.33</v>
+      </c>
+      <c r="S5">
+        <v>332.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>380.33</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>326.74</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>169.86</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>41.31</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>113.32</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>217.58</v>
       </c>
       <c r="I6" s="2">
-        <v>3</v>
+        <v>382.84</v>
       </c>
       <c r="J6" s="2">
-        <v>3</v>
+        <v>461.04</v>
       </c>
       <c r="K6" s="2">
-        <v>5</v>
+        <v>514.89</v>
       </c>
       <c r="L6" s="2">
-        <v>5</v>
+        <v>519.9</v>
       </c>
       <c r="M6" s="2">
-        <v>5</v>
+        <v>524.13</v>
       </c>
       <c r="N6" s="2">
-        <v>5</v>
+        <v>439.82</v>
       </c>
       <c r="O6" s="2">
-        <v>5</v>
+        <v>293.89999999999998</v>
       </c>
       <c r="P6" s="2">
-        <v>5</v>
+        <v>425.01</v>
       </c>
       <c r="Q6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>420.17</v>
+      </c>
+      <c r="R6">
+        <v>379.53</v>
+      </c>
+      <c r="S6">
+        <v>373.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>428.11</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>374.02</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>212.97</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>91.8</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>50.5</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>167.32</v>
       </c>
       <c r="I7" s="2">
-        <v>3</v>
+        <v>332.88</v>
       </c>
       <c r="J7" s="2">
-        <v>3</v>
+        <v>411.41</v>
       </c>
       <c r="K7" s="2">
-        <v>3</v>
+        <v>464.83</v>
       </c>
       <c r="L7" s="2">
-        <v>5</v>
+        <v>469.83</v>
       </c>
       <c r="M7" s="2">
-        <v>5</v>
+        <v>475.24</v>
       </c>
       <c r="N7" s="2">
-        <v>3</v>
+        <v>392.98</v>
       </c>
       <c r="O7" s="2">
-        <v>3</v>
+        <v>263.88</v>
       </c>
       <c r="P7" s="2">
-        <v>5</v>
+        <v>475.49</v>
       </c>
       <c r="Q7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>470.03</v>
+      </c>
+      <c r="R7">
+        <v>429.97</v>
+      </c>
+      <c r="S7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>523.02</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>468.03</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>302.01</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>207.82</v>
       </c>
       <c r="F8" s="2">
-        <v>3</v>
+        <v>168.48</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
+        <v>121.91</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>3</v>
+        <v>232.02</v>
       </c>
       <c r="J8" s="2">
-        <v>3</v>
+        <v>309.93</v>
       </c>
       <c r="K8" s="2">
-        <v>3</v>
+        <v>365.04</v>
       </c>
       <c r="L8" s="2">
-        <v>3</v>
+        <v>375.84</v>
       </c>
       <c r="M8" s="2">
-        <v>5</v>
+        <v>393.22</v>
       </c>
       <c r="N8" s="2">
-        <v>5</v>
+        <v>329.32</v>
       </c>
       <c r="O8" s="2">
-        <v>5</v>
+        <v>283.95</v>
       </c>
       <c r="P8" s="2">
-        <v>5</v>
+        <v>587.72</v>
       </c>
       <c r="Q8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>574.36</v>
+      </c>
+      <c r="R8">
+        <v>543.49</v>
+      </c>
+      <c r="S8">
+        <v>528.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>692.99</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>638.07000000000005</v>
       </c>
       <c r="D9" s="2">
-        <v>5</v>
+        <v>472.3</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>364.05</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>322.75</v>
       </c>
       <c r="G9" s="2">
-        <v>3</v>
+        <v>272.27</v>
       </c>
       <c r="H9" s="2">
-        <v>3</v>
+        <v>172.03</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>3</v>
+        <v>142.26</v>
       </c>
       <c r="K9" s="2">
-        <v>3</v>
+        <v>194.93</v>
       </c>
       <c r="L9" s="2">
-        <v>3</v>
+        <v>203.94</v>
       </c>
       <c r="M9" s="2">
-        <v>5</v>
+        <v>226.78</v>
       </c>
       <c r="N9" s="2">
-        <v>5</v>
+        <v>190.96</v>
       </c>
       <c r="O9" s="2">
-        <v>5</v>
+        <v>282.37</v>
       </c>
       <c r="P9" s="2">
-        <v>5</v>
+        <v>747.71</v>
       </c>
       <c r="Q9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>740.61</v>
+      </c>
+      <c r="R9">
+        <v>702.01</v>
+      </c>
+      <c r="S9">
+        <v>693.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>7</v>
+        <v>771.75</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>716.89</v>
       </c>
       <c r="D10" s="2">
-        <v>5</v>
+        <v>551.27</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>440.17</v>
       </c>
       <c r="F10" s="2">
-        <v>3</v>
+        <v>398.92</v>
       </c>
       <c r="G10" s="2">
-        <v>3</v>
+        <v>348.57</v>
       </c>
       <c r="H10" s="2">
-        <v>3</v>
+        <v>251.45</v>
       </c>
       <c r="I10" s="2">
-        <v>3</v>
+        <v>79.45</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>3</v>
+        <v>120.42</v>
       </c>
       <c r="L10" s="2">
-        <v>3</v>
+        <v>124.72</v>
       </c>
       <c r="M10" s="2">
-        <v>3</v>
+        <v>156.05000000000001</v>
       </c>
       <c r="N10" s="2">
-        <v>5</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="O10" s="2">
-        <v>5</v>
+        <v>317.67</v>
       </c>
       <c r="P10" s="2">
-        <v>7</v>
+        <v>823.16</v>
       </c>
       <c r="Q10" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>818.14</v>
+      </c>
+      <c r="R10">
+        <v>777.08</v>
+      </c>
+      <c r="S10">
+        <v>771.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>7</v>
+        <v>827.14</v>
       </c>
       <c r="C11" s="2">
-        <v>7</v>
+        <v>772.37</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>607.04999999999995</v>
       </c>
       <c r="E11" s="2">
-        <v>5</v>
+        <v>493.15</v>
       </c>
       <c r="F11" s="2">
-        <v>5</v>
+        <v>452.05</v>
       </c>
       <c r="G11" s="2">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="H11" s="2">
-        <v>3</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="I11" s="2">
-        <v>3</v>
+        <v>136.62</v>
       </c>
       <c r="J11" s="2">
-        <v>3</v>
+        <v>57.75</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>3</v>
+        <v>102.15</v>
       </c>
       <c r="M11" s="2">
-        <v>3</v>
+        <v>109.41</v>
       </c>
       <c r="N11" s="2">
-        <v>5</v>
+        <v>157.35</v>
       </c>
       <c r="O11" s="2">
-        <v>5</v>
+        <v>345.27</v>
       </c>
       <c r="P11" s="2">
-        <v>7</v>
+        <v>874.97</v>
       </c>
       <c r="Q11" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>872.01</v>
+      </c>
+      <c r="R11">
+        <v>828.59</v>
+      </c>
+      <c r="S11">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>836.41</v>
       </c>
       <c r="C12" s="2">
-        <v>7</v>
+        <v>781.93</v>
       </c>
       <c r="D12" s="2">
-        <v>5</v>
+        <v>617.71</v>
       </c>
       <c r="E12" s="2">
-        <v>5</v>
+        <v>498.73</v>
       </c>
       <c r="F12" s="2">
-        <v>5</v>
+        <v>458.12</v>
       </c>
       <c r="G12" s="2">
-        <v>5</v>
+        <v>408.87</v>
       </c>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>323.95999999999998</v>
       </c>
       <c r="I12" s="2">
-        <v>3</v>
+        <v>156.13</v>
       </c>
       <c r="J12" s="2">
-        <v>3</v>
+        <v>85.25</v>
       </c>
       <c r="K12" s="2">
-        <v>3</v>
+        <v>102.15</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>3</v>
+        <v>72.709999999999994</v>
       </c>
       <c r="N12" s="2">
-        <v>3</v>
+        <v>128.33000000000001</v>
       </c>
       <c r="O12" s="2">
-        <v>3</v>
+        <v>327.93</v>
       </c>
       <c r="P12" s="2">
-        <v>7</v>
+        <v>877.62</v>
       </c>
       <c r="Q12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>878.1</v>
+      </c>
+      <c r="R12">
+        <v>830.87</v>
+      </c>
+      <c r="S12">
+        <v>831.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>7</v>
+        <v>847.25</v>
       </c>
       <c r="C13" s="2">
-        <v>7</v>
+        <v>793.38</v>
       </c>
       <c r="D13" s="2">
-        <v>5</v>
+        <v>631.46</v>
       </c>
       <c r="E13" s="2">
-        <v>5</v>
+        <v>506.53</v>
       </c>
       <c r="F13" s="2">
-        <v>5</v>
+        <v>467.01</v>
       </c>
       <c r="G13" s="2">
-        <v>5</v>
+        <v>419.48</v>
       </c>
       <c r="H13" s="2">
-        <v>5</v>
+        <v>347.45</v>
       </c>
       <c r="I13" s="2">
-        <v>5</v>
+        <v>190.37</v>
       </c>
       <c r="J13" s="2">
-        <v>3</v>
+        <v>132.83000000000001</v>
       </c>
       <c r="K13" s="2">
-        <v>3</v>
+        <v>105.58</v>
       </c>
       <c r="L13" s="2">
-        <v>3</v>
+        <v>70.36</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>3</v>
+        <v>98.05</v>
       </c>
       <c r="O13" s="2">
-        <v>3</v>
+        <v>306.23</v>
       </c>
       <c r="P13" s="2">
-        <v>7</v>
+        <v>879.25</v>
       </c>
       <c r="Q13" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>884.45</v>
+      </c>
+      <c r="R13">
+        <v>832.15</v>
+      </c>
+      <c r="S13">
+        <v>837.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>7</v>
+        <v>766.87</v>
       </c>
       <c r="C14" s="2">
-        <v>7</v>
+        <v>713.96</v>
       </c>
       <c r="D14" s="2">
-        <v>5</v>
+        <v>556.01</v>
       </c>
       <c r="E14" s="2">
-        <v>5</v>
+        <v>425.48</v>
       </c>
       <c r="F14" s="2">
-        <v>5</v>
+        <v>387.81</v>
       </c>
       <c r="G14" s="2">
-        <v>3</v>
+        <v>343.36</v>
       </c>
       <c r="H14" s="2">
-        <v>5</v>
+        <v>293.75</v>
       </c>
       <c r="I14" s="2">
-        <v>5</v>
+        <v>178.09</v>
       </c>
       <c r="J14" s="2">
-        <v>5</v>
+        <v>169.94</v>
       </c>
       <c r="K14" s="2">
-        <v>5</v>
+        <v>183.62</v>
       </c>
       <c r="L14" s="2">
-        <v>3</v>
+        <v>164.5</v>
       </c>
       <c r="M14" s="2">
-        <v>3</v>
+        <v>153.91999999999999</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>3</v>
+        <v>208.37</v>
       </c>
       <c r="P14" s="2">
-        <v>5</v>
+        <v>790.06</v>
       </c>
       <c r="Q14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>799.33</v>
+      </c>
+      <c r="R14">
+        <v>742.82</v>
+      </c>
+      <c r="S14">
+        <v>752.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>7</v>
+        <v>610.34</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>561.85</v>
       </c>
       <c r="D15" s="2">
-        <v>5</v>
+        <v>424.17</v>
       </c>
       <c r="E15" s="2">
-        <v>5</v>
+        <v>287.45999999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>5</v>
+        <v>262.70999999999998</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>240.11</v>
       </c>
       <c r="H15" s="2">
-        <v>5</v>
+        <v>280.42</v>
       </c>
       <c r="I15" s="2">
-        <v>5</v>
+        <v>306.19</v>
       </c>
       <c r="J15" s="2">
-        <v>5</v>
+        <v>351.23</v>
       </c>
       <c r="K15" s="2">
-        <v>5</v>
+        <v>384.99</v>
       </c>
       <c r="L15" s="2">
-        <v>3</v>
+        <v>372.1</v>
       </c>
       <c r="M15" s="2">
-        <v>3</v>
+        <v>356.99</v>
       </c>
       <c r="N15" s="2">
-        <v>3</v>
+        <v>260.58999999999997</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>5</v>
+        <v>607.12</v>
       </c>
       <c r="Q15" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>628.22</v>
+      </c>
+      <c r="R15">
+        <v>560.16</v>
+      </c>
+      <c r="S15">
+        <v>583.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>173.28</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>207.72</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>350.37</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>442.36</v>
       </c>
       <c r="F16" s="2">
-        <v>5</v>
+        <v>483.57</v>
       </c>
       <c r="G16" s="2">
-        <v>5</v>
+        <v>533.91999999999996</v>
       </c>
       <c r="H16" s="2">
-        <v>5</v>
+        <v>642.33000000000004</v>
       </c>
       <c r="I16" s="2">
-        <v>5</v>
+        <v>805.86</v>
       </c>
       <c r="J16" s="2">
-        <v>7</v>
+        <v>882.48</v>
       </c>
       <c r="K16" s="2">
-        <v>7</v>
+        <v>935.42</v>
       </c>
       <c r="L16" s="2">
-        <v>7</v>
+        <v>939.86</v>
       </c>
       <c r="M16" s="2">
-        <v>7</v>
+        <v>942.04</v>
       </c>
       <c r="N16" s="2">
-        <v>5</v>
+        <v>851.02</v>
       </c>
       <c r="O16" s="2">
-        <v>5</v>
+        <v>662.61</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+        <v>91.96</v>
+      </c>
+      <c r="R16">
+        <v>110.1</v>
+      </c>
+      <c r="S16">
+        <v>120.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>117.51</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>169.26</v>
       </c>
       <c r="D17" s="2">
-        <v>3</v>
+        <v>332.99</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>442.21</v>
       </c>
       <c r="F17" s="2">
-        <v>5</v>
+        <v>483</v>
       </c>
       <c r="G17" s="2">
-        <v>5</v>
+        <v>532.86</v>
       </c>
       <c r="H17" s="2">
-        <v>5</v>
+        <v>634.26</v>
       </c>
       <c r="I17" s="2">
-        <v>5</v>
+        <v>802.9</v>
       </c>
       <c r="J17" s="2">
-        <v>7</v>
+        <v>880.97</v>
       </c>
       <c r="K17" s="2">
-        <v>7</v>
+        <v>934.85</v>
       </c>
       <c r="L17" s="2">
-        <v>7</v>
+        <v>939.84</v>
       </c>
       <c r="M17" s="2">
-        <v>7</v>
+        <v>943.74</v>
       </c>
       <c r="N17" s="2">
-        <v>5</v>
+        <v>856.41</v>
       </c>
       <c r="O17" s="2">
-        <v>5</v>
+        <v>678.83</v>
       </c>
       <c r="P17" s="2">
-        <v>5</v>
+        <v>91.96</v>
       </c>
       <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>124.77</v>
+      </c>
+      <c r="S17">
+        <v>109.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>162.13</v>
+      </c>
+      <c r="C18">
+        <v>181.66</v>
+      </c>
+      <c r="D18">
+        <v>308.98</v>
+      </c>
+      <c r="E18">
+        <v>395.77</v>
+      </c>
+      <c r="F18">
+        <v>437.03</v>
+      </c>
+      <c r="G18">
+        <v>487.44</v>
+      </c>
+      <c r="H18">
+        <v>597.03</v>
+      </c>
+      <c r="I18">
+        <v>759.56</v>
+      </c>
+      <c r="J18">
+        <v>835.93</v>
+      </c>
+      <c r="K18">
+        <v>888.66</v>
+      </c>
+      <c r="L18">
+        <v>892.83</v>
+      </c>
+      <c r="M18">
+        <v>894.99</v>
+      </c>
+      <c r="N18">
+        <v>803.93</v>
+      </c>
+      <c r="O18">
+        <v>615.4</v>
+      </c>
+      <c r="P18">
+        <v>47.27</v>
+      </c>
+      <c r="Q18">
+        <v>98.83</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>93.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>85.88</v>
+      </c>
+      <c r="C19">
+        <v>126.01</v>
+      </c>
+      <c r="D19">
+        <v>286.58</v>
+      </c>
+      <c r="E19">
+        <v>395.13</v>
+      </c>
+      <c r="F19">
+        <v>435.94</v>
+      </c>
+      <c r="G19">
+        <v>485.84</v>
+      </c>
+      <c r="H19">
+        <v>587.42999999999995</v>
+      </c>
+      <c r="I19">
+        <v>755.87</v>
+      </c>
+      <c r="J19">
+        <v>834.04</v>
+      </c>
+      <c r="K19">
+        <v>887.83</v>
+      </c>
+      <c r="L19">
+        <v>892.83</v>
+      </c>
+      <c r="M19">
+        <v>896.65</v>
+      </c>
+      <c r="N19">
+        <v>809.39</v>
+      </c>
+      <c r="O19">
+        <v>632.85</v>
+      </c>
+      <c r="P19">
+        <v>91.49</v>
+      </c>
+      <c r="Q19">
+        <v>47.1</v>
+      </c>
+      <c r="R19">
+        <v>93.84</v>
+      </c>
+      <c r="S19">
         <v>0</v>
       </c>
     </row>
@@ -1329,7 +1560,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A6:A17" numberStoredAsText="1"/>
+    <ignoredError sqref="A6:A19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>